--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H2">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I2">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J2">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N2">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O2">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P2">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q2">
-        <v>34.02256708652811</v>
+        <v>8.496886828753668</v>
       </c>
       <c r="R2">
-        <v>306.203103778753</v>
+        <v>76.47198145878301</v>
       </c>
       <c r="S2">
-        <v>0.01138974158889322</v>
+        <v>0.00422127626326365</v>
       </c>
       <c r="T2">
-        <v>0.01138974158889323</v>
+        <v>0.004221276263263651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H3">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I3">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J3">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.133935</v>
       </c>
       <c r="O3">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P3">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q3">
-        <v>1685.124957245784</v>
+        <v>436.6286893064517</v>
       </c>
       <c r="R3">
-        <v>15166.12461521206</v>
+        <v>3929.658203758065</v>
       </c>
       <c r="S3">
-        <v>0.5641296190029151</v>
+        <v>0.2169183089260465</v>
       </c>
       <c r="T3">
-        <v>0.5641296190029154</v>
+        <v>0.2169183089260466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H4">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I4">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J4">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N4">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q4">
-        <v>238.0116209485677</v>
+        <v>91.70582585838768</v>
       </c>
       <c r="R4">
-        <v>2142.10458853711</v>
+        <v>825.3524327254891</v>
       </c>
       <c r="S4">
-        <v>0.0796791979530322</v>
+        <v>0.04555970130012715</v>
       </c>
       <c r="T4">
-        <v>0.07967919795303224</v>
+        <v>0.04555970130012716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N5">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O5">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P5">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q5">
-        <v>8.066556822389776</v>
+        <v>7.775007105692888</v>
       </c>
       <c r="R5">
-        <v>72.59901140150799</v>
+        <v>69.975063951236</v>
       </c>
       <c r="S5">
-        <v>0.00270044284093787</v>
+        <v>0.003862644472432233</v>
       </c>
       <c r="T5">
-        <v>0.00270044284093787</v>
+        <v>0.003862644472432234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.133935</v>
       </c>
       <c r="O6">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P6">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q6">
         <v>399.5335268464422</v>
@@ -818,10 +818,10 @@
         <v>3595.80174161798</v>
       </c>
       <c r="S6">
-        <v>0.1337519186987511</v>
+        <v>0.1984893322984602</v>
       </c>
       <c r="T6">
-        <v>0.1337519186987511</v>
+        <v>0.1984893322984603</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N7">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q7">
-        <v>56.43119932390266</v>
+        <v>83.91466922562088</v>
       </c>
       <c r="R7">
-        <v>507.880793915124</v>
+        <v>755.232023030588</v>
       </c>
       <c r="S7">
-        <v>0.01889148388526748</v>
+        <v>0.04168903369914514</v>
       </c>
       <c r="T7">
-        <v>0.01889148388526748</v>
+        <v>0.04168903369914515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H8">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I8">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J8">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N8">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O8">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P8">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q8">
-        <v>9.837985274732223</v>
+        <v>15.58753448997178</v>
       </c>
       <c r="R8">
-        <v>88.54186747259</v>
+        <v>140.287810409746</v>
       </c>
       <c r="S8">
-        <v>0.00329346429825708</v>
+        <v>0.007743929120328514</v>
       </c>
       <c r="T8">
-        <v>0.003293464298257081</v>
+        <v>0.007743929120328515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H9">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I9">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J9">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.133935</v>
       </c>
       <c r="O9">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P9">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q9">
-        <v>487.2717121346278</v>
+        <v>800.9951045651144</v>
       </c>
       <c r="R9">
-        <v>4385.44540921165</v>
+        <v>7208.95594108603</v>
       </c>
       <c r="S9">
-        <v>0.1631240485374358</v>
+        <v>0.3979365254635343</v>
       </c>
       <c r="T9">
-        <v>0.1631240485374359</v>
+        <v>0.3979365254635344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H10">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I10">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J10">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N10">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q10">
-        <v>68.82357866036334</v>
+        <v>168.2342900768798</v>
       </c>
       <c r="R10">
-        <v>619.4122079432701</v>
+        <v>1514.108610691918</v>
       </c>
       <c r="S10">
-        <v>0.02304008319450998</v>
+        <v>0.08357924845666227</v>
       </c>
       <c r="T10">
-        <v>0.02304008319450999</v>
+        <v>0.0835792484566623</v>
       </c>
     </row>
   </sheetData>
